--- a/Bill_of_Materials.xlsx
+++ b/Bill_of_Materials.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mickey\Documents\hera-led\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:20001_{CFCC5733-0626-472D-8163-F26C002B3957}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B842DED-D409-4C2E-B2A8-3EA798ECBBD1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,6 @@
     <sheet name="Final BoM" sheetId="3" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -29,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="59">
   <si>
     <t>Item</t>
   </si>
@@ -200,6 +199,12 @@
   </si>
   <si>
     <t>https://www.michaels.com/elmers-black-foam-boards-11x14/10308905.html</t>
+  </si>
+  <si>
+    <t>Addressable LED Strings</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/ALITOVE-LED-Individually-Addressable-Waterproof/dp/B01NCAG8KV?ref_=fsclp_pl_dp_1&amp;th=1</t>
   </si>
 </sst>
 </file>
@@ -209,7 +214,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -262,8 +267,14 @@
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -276,6 +287,12 @@
         <bgColor rgb="FF999999"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="22">
     <border>
@@ -571,10 +588,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -652,8 +670,25 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="8">
@@ -752,7 +787,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table_4" displayName="Table_4" ref="B3:I22" headerRowCount="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table_4" displayName="Table_4" ref="B4:I23" headerRowCount="0">
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Column1"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Column2"/>
@@ -968,10 +1003,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="B1:I24"/>
+  <dimension ref="B1:I25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -987,7 +1022,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:9" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1014,65 +1049,65 @@
       </c>
     </row>
     <row r="3" spans="2:9" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="C3" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="D3" s="30">
+        <v>320</v>
+      </c>
+      <c r="E3" s="30">
+        <v>500</v>
+      </c>
+      <c r="F3" s="30">
+        <v>1</v>
+      </c>
+      <c r="G3" s="31">
+        <v>118</v>
+      </c>
+      <c r="H3" s="32">
+        <f t="shared" ref="H3" si="0">F3*G3</f>
+        <v>118</v>
+      </c>
+      <c r="I3" s="34" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C4" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="6">
-        <v>1</v>
-      </c>
-      <c r="E3" s="6">
-        <v>1</v>
-      </c>
-      <c r="F3" s="6">
-        <v>1</v>
-      </c>
-      <c r="G3" s="7">
+      <c r="D4" s="6">
+        <v>1</v>
+      </c>
+      <c r="E4" s="6">
+        <v>1</v>
+      </c>
+      <c r="F4" s="6">
+        <v>1</v>
+      </c>
+      <c r="G4" s="7">
         <v>136.35</v>
       </c>
-      <c r="H3" s="8">
-        <f t="shared" ref="H3:H22" si="0">F3*G3</f>
+      <c r="H4" s="8">
+        <f t="shared" ref="H4:H23" si="1">F4*G4</f>
         <v>136.35</v>
       </c>
-      <c r="I3" s="12" t="s">
+      <c r="I4" s="12" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="2:9" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B4" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="10">
-        <v>1</v>
-      </c>
-      <c r="E4" s="10">
-        <v>1</v>
-      </c>
-      <c r="F4" s="10">
-        <v>1</v>
-      </c>
-      <c r="G4" s="11">
-        <v>31.99</v>
-      </c>
-      <c r="H4" s="13">
-        <f t="shared" si="0"/>
-        <v>31.99</v>
-      </c>
-      <c r="I4" s="16" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="5" spans="2:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B5" s="9" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D5" s="10">
         <v>1</v>
@@ -1084,68 +1119,68 @@
         <v>1</v>
       </c>
       <c r="G5" s="11">
-        <v>41.54</v>
+        <v>31.99</v>
       </c>
       <c r="H5" s="13">
-        <f t="shared" si="0"/>
-        <v>41.54</v>
+        <f t="shared" si="1"/>
+        <v>31.99</v>
       </c>
       <c r="I5" s="16" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="2:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B6" s="9" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D6" s="10">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E6" s="10">
         <v>1</v>
       </c>
       <c r="F6" s="10">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G6" s="11">
-        <v>1.64</v>
+        <v>41.54</v>
       </c>
       <c r="H6" s="13">
-        <f t="shared" si="0"/>
-        <v>6.56</v>
+        <f t="shared" si="1"/>
+        <v>41.54</v>
       </c>
       <c r="I6" s="16" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="2:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B7" s="9" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D7" s="10">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E7" s="10">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F7" s="10">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G7" s="11">
-        <v>8.75</v>
+        <v>1.64</v>
       </c>
       <c r="H7" s="13">
-        <f t="shared" si="0"/>
-        <v>17.5</v>
+        <f t="shared" si="1"/>
+        <v>6.56</v>
       </c>
       <c r="I7" s="16" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="2:9" ht="13.2" x14ac:dyDescent="0.25">
@@ -1153,26 +1188,26 @@
         <v>29</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D8" s="10">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E8" s="10">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F8" s="10">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="G8" s="11">
-        <v>5.2</v>
+        <v>8.75</v>
       </c>
       <c r="H8" s="13">
-        <f t="shared" si="0"/>
-        <v>62.400000000000006</v>
+        <f t="shared" si="1"/>
+        <v>17.5</v>
       </c>
       <c r="I8" s="16" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="2:9" ht="13.2" x14ac:dyDescent="0.25">
@@ -1180,53 +1215,53 @@
         <v>29</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D9" s="10">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E9" s="10">
         <v>1</v>
       </c>
       <c r="F9" s="10">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="G9" s="11">
-        <v>5.93</v>
+        <v>5.2</v>
       </c>
       <c r="H9" s="13">
-        <f t="shared" si="0"/>
-        <v>23.72</v>
+        <f t="shared" si="1"/>
+        <v>62.400000000000006</v>
       </c>
       <c r="I9" s="16" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="2:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B10" s="9" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D10" s="10">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E10" s="10">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="F10" s="10">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G10" s="11">
-        <v>9.15</v>
+        <v>5.93</v>
       </c>
       <c r="H10" s="13">
-        <f t="shared" si="0"/>
-        <v>9.15</v>
+        <f t="shared" si="1"/>
+        <v>23.72</v>
       </c>
       <c r="I10" s="16" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="2:9" ht="13.2" x14ac:dyDescent="0.25">
@@ -1234,10 +1269,10 @@
         <v>36</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D11" s="10">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="E11" s="10">
         <v>100</v>
@@ -1246,100 +1281,100 @@
         <v>1</v>
       </c>
       <c r="G11" s="11">
-        <v>3.88</v>
+        <v>9.15</v>
       </c>
       <c r="H11" s="13">
-        <f t="shared" si="0"/>
-        <v>3.88</v>
+        <f t="shared" si="1"/>
+        <v>9.15</v>
       </c>
       <c r="I11" s="16" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="2:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B12" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12" s="10">
+        <v>16</v>
+      </c>
+      <c r="E12" s="10">
+        <v>100</v>
+      </c>
+      <c r="F12" s="10">
+        <v>1</v>
+      </c>
+      <c r="G12" s="11">
+        <v>3.88</v>
+      </c>
+      <c r="H12" s="13">
+        <f t="shared" si="1"/>
+        <v>3.88</v>
+      </c>
+      <c r="I12" s="16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B13" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C13" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D12" s="10">
+      <c r="D13" s="10">
         <v>7</v>
       </c>
-      <c r="E12" s="10">
-        <v>1</v>
-      </c>
-      <c r="F12" s="10">
+      <c r="E13" s="10">
+        <v>1</v>
+      </c>
+      <c r="F13" s="10">
         <v>7</v>
       </c>
-      <c r="G12" s="11">
+      <c r="G13" s="11">
         <v>4.58</v>
       </c>
-      <c r="H12" s="13">
-        <f t="shared" si="0"/>
+      <c r="H13" s="13">
+        <f t="shared" si="1"/>
         <v>32.06</v>
       </c>
-      <c r="I12" s="16" t="s">
+      <c r="I13" s="16" t="s">
         <v>42</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B13" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="C13" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="D13" s="21">
-        <v>16</v>
-      </c>
-      <c r="E13" s="21">
-        <v>1</v>
-      </c>
-      <c r="F13" s="10">
-        <v>16</v>
-      </c>
-      <c r="G13" s="23">
-        <v>4.4800000000000004</v>
-      </c>
-      <c r="H13" s="13">
-        <f t="shared" si="0"/>
-        <v>71.680000000000007</v>
-      </c>
-      <c r="I13" s="24" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="14" spans="2:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B14" s="20" t="s">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="C14" s="21" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D14" s="21">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="E14" s="21">
         <v>1</v>
       </c>
       <c r="F14" s="10">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="G14" s="23">
-        <v>35</v>
+        <v>4.4800000000000004</v>
       </c>
       <c r="H14" s="13">
-        <f t="shared" si="0"/>
-        <v>35</v>
+        <f t="shared" si="1"/>
+        <v>71.680000000000007</v>
       </c>
       <c r="I14" s="24" t="s">
-        <v>11</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15" spans="2:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B15" s="20" t="s">
-        <v>47</v>
+        <v>8</v>
       </c>
       <c r="C15" s="21" t="s">
         <v>46</v>
@@ -1354,19 +1389,19 @@
         <v>1</v>
       </c>
       <c r="G15" s="23">
-        <v>7.95</v>
+        <v>35</v>
       </c>
       <c r="H15" s="13">
-        <f t="shared" si="0"/>
-        <v>7.95</v>
-      </c>
-      <c r="I15" s="25" t="s">
-        <v>13</v>
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+      <c r="I15" s="24" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="2:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B16" s="20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C16" s="21" t="s">
         <v>46</v>
@@ -1381,19 +1416,19 @@
         <v>1</v>
       </c>
       <c r="G16" s="23">
-        <v>8.9499999999999993</v>
+        <v>7.95</v>
       </c>
       <c r="H16" s="13">
-        <f t="shared" si="0"/>
-        <v>8.9499999999999993</v>
+        <f t="shared" si="1"/>
+        <v>7.95</v>
       </c>
       <c r="I16" s="25" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="2:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B17" s="20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C17" s="21" t="s">
         <v>46</v>
@@ -1408,19 +1443,19 @@
         <v>1</v>
       </c>
       <c r="G17" s="23">
-        <v>19.95</v>
+        <v>8.9499999999999993</v>
       </c>
       <c r="H17" s="13">
-        <f t="shared" si="0"/>
-        <v>19.95</v>
+        <f t="shared" si="1"/>
+        <v>8.9499999999999993</v>
       </c>
       <c r="I17" s="25" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="2:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B18" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C18" s="21" t="s">
         <v>46</v>
@@ -1435,19 +1470,19 @@
         <v>1</v>
       </c>
       <c r="G18" s="23">
-        <v>2.4500000000000002</v>
+        <v>19.95</v>
       </c>
       <c r="H18" s="13">
-        <f t="shared" si="0"/>
-        <v>2.4500000000000002</v>
+        <f t="shared" si="1"/>
+        <v>19.95</v>
       </c>
       <c r="I18" s="25" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="2:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B19" s="20" t="s">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="C19" s="21" t="s">
         <v>46</v>
@@ -1462,19 +1497,19 @@
         <v>1</v>
       </c>
       <c r="G19" s="23">
-        <v>8.9499999999999993</v>
+        <v>2.4500000000000002</v>
       </c>
       <c r="H19" s="13">
-        <f t="shared" si="0"/>
-        <v>8.9499999999999993</v>
+        <f t="shared" si="1"/>
+        <v>2.4500000000000002</v>
       </c>
       <c r="I19" s="25" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="2:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B20" s="20" t="s">
-        <v>51</v>
+        <v>18</v>
       </c>
       <c r="C20" s="21" t="s">
         <v>46</v>
@@ -1489,79 +1524,96 @@
         <v>1</v>
       </c>
       <c r="G20" s="23">
-        <v>14.95</v>
+        <v>8.9499999999999993</v>
       </c>
       <c r="H20" s="13">
-        <f t="shared" si="0"/>
-        <v>14.95</v>
+        <f t="shared" si="1"/>
+        <v>8.9499999999999993</v>
       </c>
       <c r="I20" s="25" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="2:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B21" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="C21" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="D21" s="21">
+        <v>1</v>
+      </c>
+      <c r="E21" s="21">
+        <v>1</v>
+      </c>
+      <c r="F21" s="10">
+        <v>1</v>
+      </c>
+      <c r="G21" s="23">
+        <v>14.95</v>
+      </c>
+      <c r="H21" s="13">
+        <f t="shared" si="1"/>
+        <v>14.95</v>
+      </c>
+      <c r="I21" s="25" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B22" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="C21" s="21" t="s">
+      <c r="C22" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="D21" s="21">
+      <c r="D22" s="21">
         <v>3</v>
       </c>
-      <c r="E21" s="21">
-        <v>1</v>
-      </c>
-      <c r="F21" s="10">
+      <c r="E22" s="21">
+        <v>1</v>
+      </c>
+      <c r="F22" s="10">
         <v>3</v>
       </c>
-      <c r="G21" s="23">
+      <c r="G22" s="23">
         <v>42</v>
       </c>
-      <c r="H21" s="13">
-        <f t="shared" si="0"/>
+      <c r="H22" s="13">
+        <f t="shared" si="1"/>
         <v>126</v>
       </c>
-      <c r="I21" s="26" t="s">
+      <c r="I22" s="26" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="22" spans="2:9" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B22" s="14" t="s">
+    <row r="23" spans="2:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B23" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="C22" s="15" t="s">
+      <c r="C23" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="D22" s="15">
-        <v>1</v>
-      </c>
-      <c r="E22" s="15">
-        <v>1</v>
-      </c>
-      <c r="F22" s="15">
-        <v>1</v>
-      </c>
-      <c r="G22" s="17">
+      <c r="D23" s="15">
+        <v>1</v>
+      </c>
+      <c r="E23" s="15">
+        <v>1</v>
+      </c>
+      <c r="F23" s="15">
+        <v>1</v>
+      </c>
+      <c r="G23" s="17">
         <v>10</v>
       </c>
-      <c r="H22" s="27">
-        <f t="shared" si="0"/>
+      <c r="H23" s="27">
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="I22" s="28" t="s">
+      <c r="I23" s="28" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="23" spans="2:9" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B23" s="18"/>
-      <c r="C23" s="18"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="18"/>
-      <c r="F23" s="18"/>
-      <c r="G23" s="18"/>
-      <c r="H23" s="18"/>
-      <c r="I23" s="18"/>
     </row>
     <row r="24" spans="2:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B24" s="18"/>
@@ -1569,41 +1621,52 @@
       <c r="D24" s="18"/>
       <c r="E24" s="18"/>
       <c r="F24" s="18"/>
-      <c r="G24" s="19" t="s">
+      <c r="G24" s="18"/>
+      <c r="H24" s="18"/>
+      <c r="I24" s="18"/>
+    </row>
+    <row r="25" spans="2:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B25" s="18"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="H24" s="22">
-        <f>SUM(H3:H22)</f>
+      <c r="H25" s="22">
+        <f>SUM(H4:H23)</f>
         <v>671.03000000000009</v>
       </c>
-      <c r="I24" s="18"/>
+      <c r="I25" s="18"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="I3" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
-    <hyperlink ref="I4" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
-    <hyperlink ref="I5" r:id="rId3" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
-    <hyperlink ref="I6" r:id="rId4" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
-    <hyperlink ref="I7" r:id="rId5" xr:uid="{00000000-0004-0000-0200-000004000000}"/>
-    <hyperlink ref="I8" r:id="rId6" xr:uid="{00000000-0004-0000-0200-000005000000}"/>
-    <hyperlink ref="I9" r:id="rId7" xr:uid="{00000000-0004-0000-0200-000006000000}"/>
-    <hyperlink ref="I10" r:id="rId8" xr:uid="{00000000-0004-0000-0200-000007000000}"/>
-    <hyperlink ref="I11" r:id="rId9" xr:uid="{00000000-0004-0000-0200-000008000000}"/>
-    <hyperlink ref="I12" r:id="rId10" xr:uid="{00000000-0004-0000-0200-000009000000}"/>
-    <hyperlink ref="I13" r:id="rId11" xr:uid="{00000000-0004-0000-0200-00000A000000}"/>
-    <hyperlink ref="I14" r:id="rId12" xr:uid="{00000000-0004-0000-0200-00000B000000}"/>
-    <hyperlink ref="I15" r:id="rId13" xr:uid="{00000000-0004-0000-0200-00000C000000}"/>
-    <hyperlink ref="I16" r:id="rId14" xr:uid="{00000000-0004-0000-0200-00000D000000}"/>
-    <hyperlink ref="I17" r:id="rId15" xr:uid="{00000000-0004-0000-0200-00000E000000}"/>
-    <hyperlink ref="I18" r:id="rId16" xr:uid="{00000000-0004-0000-0200-00000F000000}"/>
-    <hyperlink ref="I19" r:id="rId17" xr:uid="{00000000-0004-0000-0200-000010000000}"/>
-    <hyperlink ref="I20" r:id="rId18" xr:uid="{00000000-0004-0000-0200-000011000000}"/>
-    <hyperlink ref="I21" r:id="rId19" xr:uid="{00000000-0004-0000-0200-000012000000}"/>
-    <hyperlink ref="I22" r:id="rId20" xr:uid="{00000000-0004-0000-0200-000013000000}"/>
+    <hyperlink ref="I4" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="I5" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
+    <hyperlink ref="I6" r:id="rId3" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
+    <hyperlink ref="I7" r:id="rId4" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
+    <hyperlink ref="I8" r:id="rId5" xr:uid="{00000000-0004-0000-0200-000004000000}"/>
+    <hyperlink ref="I9" r:id="rId6" xr:uid="{00000000-0004-0000-0200-000005000000}"/>
+    <hyperlink ref="I10" r:id="rId7" xr:uid="{00000000-0004-0000-0200-000006000000}"/>
+    <hyperlink ref="I11" r:id="rId8" xr:uid="{00000000-0004-0000-0200-000007000000}"/>
+    <hyperlink ref="I12" r:id="rId9" xr:uid="{00000000-0004-0000-0200-000008000000}"/>
+    <hyperlink ref="I13" r:id="rId10" xr:uid="{00000000-0004-0000-0200-000009000000}"/>
+    <hyperlink ref="I14" r:id="rId11" xr:uid="{00000000-0004-0000-0200-00000A000000}"/>
+    <hyperlink ref="I15" r:id="rId12" xr:uid="{00000000-0004-0000-0200-00000B000000}"/>
+    <hyperlink ref="I16" r:id="rId13" xr:uid="{00000000-0004-0000-0200-00000C000000}"/>
+    <hyperlink ref="I17" r:id="rId14" xr:uid="{00000000-0004-0000-0200-00000D000000}"/>
+    <hyperlink ref="I18" r:id="rId15" xr:uid="{00000000-0004-0000-0200-00000E000000}"/>
+    <hyperlink ref="I19" r:id="rId16" xr:uid="{00000000-0004-0000-0200-00000F000000}"/>
+    <hyperlink ref="I20" r:id="rId17" xr:uid="{00000000-0004-0000-0200-000010000000}"/>
+    <hyperlink ref="I21" r:id="rId18" xr:uid="{00000000-0004-0000-0200-000011000000}"/>
+    <hyperlink ref="I22" r:id="rId19" xr:uid="{00000000-0004-0000-0200-000012000000}"/>
+    <hyperlink ref="I23" r:id="rId20" xr:uid="{00000000-0004-0000-0200-000013000000}"/>
+    <hyperlink ref="I3" r:id="rId21" xr:uid="{094090C0-464F-4ECB-97C7-E3B222ADA5F2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId21"/>
+    <tablePart r:id="rId22"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Bill_of_Materials.xlsx
+++ b/Bill_of_Materials.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mickey\Documents\hera-led\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B842DED-D409-4C2E-B2A8-3EA798ECBBD1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86DD80E8-672C-4C0F-B8EF-503B3F679165}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="63">
   <si>
     <t>Item</t>
   </si>
@@ -205,6 +205,18 @@
   </si>
   <si>
     <t>https://www.amazon.com/ALITOVE-LED-Individually-Addressable-Waterproof/dp/B01NCAG8KV?ref_=fsclp_pl_dp_1&amp;th=1</t>
+  </si>
+  <si>
+    <t>LED Power Supply</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/dp/B06XK3X3PW/ref=cm_sw_r_cp_ep_dp_v01ZzbYYBK4NR</t>
+  </si>
+  <si>
+    <t>LED Power Supply Cable</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/dp/B07CWS4BGC</t>
   </si>
 </sst>
 </file>
@@ -274,7 +286,7 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -289,12 +301,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
+        <fgColor theme="0"/>
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="22">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -303,52 +321,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
         <color rgb="FF000000"/>
       </left>
       <right style="thin">
@@ -365,6 +338,45 @@
         <color rgb="FF000000"/>
       </left>
       <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
@@ -374,8 +386,92 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
       </left>
       <right style="thin">
         <color rgb="FF000000"/>
@@ -387,22 +483,20 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
       <right style="medium">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </right>
       <top/>
       <bottom style="thin">
@@ -412,7 +506,7 @@
     </border>
     <border>
       <left style="medium">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </left>
       <right style="thin">
         <color rgb="FF000000"/>
@@ -429,8 +523,8 @@
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
+      <right style="medium">
+        <color indexed="64"/>
       </right>
       <top style="thin">
         <color rgb="FF000000"/>
@@ -441,17 +535,45 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
         <color rgb="FF000000"/>
       </right>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -463,127 +585,51 @@
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
       </right>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom style="medium">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
       </right>
       <top style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
+      <bottom style="thin">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </left>
       <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </right>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
+      <bottom style="thin">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -592,106 +638,185 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="13" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="2" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="22" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="23" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="4" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="19">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -759,20 +884,20 @@
   </dxfs>
   <tableStyles count="4">
     <tableStyle name="Stuff Needed-style" pivot="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="firstRowStripe" dxfId="7"/>
-      <tableStyleElement type="secondRowStripe" dxfId="6"/>
+      <tableStyleElement type="firstRowStripe" dxfId="18"/>
+      <tableStyleElement type="secondRowStripe" dxfId="17"/>
     </tableStyle>
     <tableStyle name="Stuff Needed-style 2" pivot="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF01000000}">
-      <tableStyleElement type="firstRowStripe" dxfId="5"/>
-      <tableStyleElement type="secondRowStripe" dxfId="4"/>
+      <tableStyleElement type="firstRowStripe" dxfId="16"/>
+      <tableStyleElement type="secondRowStripe" dxfId="15"/>
     </tableStyle>
     <tableStyle name="Initial BoM-style" pivot="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF02000000}">
-      <tableStyleElement type="firstRowStripe" dxfId="3"/>
-      <tableStyleElement type="secondRowStripe" dxfId="2"/>
+      <tableStyleElement type="firstRowStripe" dxfId="14"/>
+      <tableStyleElement type="secondRowStripe" dxfId="13"/>
     </tableStyle>
     <tableStyle name="Final BoM-style" pivot="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF03000000}">
-      <tableStyleElement type="firstRowStripe" dxfId="1"/>
-      <tableStyleElement type="secondRowStripe" dxfId="0"/>
+      <tableStyleElement type="firstRowStripe" dxfId="12"/>
+      <tableStyleElement type="secondRowStripe" dxfId="11"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -787,16 +912,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table_4" displayName="Table_4" ref="B4:I23" headerRowCount="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table_4" displayName="Table_4" ref="B6:I25" headerRowCount="0" headerRowDxfId="2" dataDxfId="0" totalsRowDxfId="1">
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Column1"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Column2"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="Column3"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="Column4"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="Column5"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0300-000006000000}" name="Column6"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0300-000007000000}" name="Column7"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0300-000008000000}" name="Column8"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Column1" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Column2" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="Column3" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="Column4" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="Column5" dataDxfId="6"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0300-000006000000}" name="Column6" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0300-000007000000}" name="Column7" dataDxfId="4"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0300-000008000000}" name="Column8" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="Final BoM-style" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1003,10 +1128,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="B1:I25"/>
+  <dimension ref="B1:I27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1023,650 +1148,706 @@
   <sheetData>
     <row r="1" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="2" t="s">
+      <c r="C2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="7" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="2:9" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="C3" s="33" t="s">
+      <c r="C3" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="D3" s="30">
+      <c r="D3" s="10">
         <v>320</v>
       </c>
-      <c r="E3" s="30">
+      <c r="E3" s="10">
         <v>500</v>
       </c>
-      <c r="F3" s="30">
-        <v>1</v>
-      </c>
-      <c r="G3" s="31">
+      <c r="F3" s="10">
+        <v>1</v>
+      </c>
+      <c r="G3" s="11">
         <v>118</v>
       </c>
-      <c r="H3" s="32">
+      <c r="H3" s="12">
         <f t="shared" ref="H3" si="0">F3*G3</f>
         <v>118</v>
       </c>
-      <c r="I3" s="34" t="s">
+      <c r="I3" s="13" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="4" spans="2:9" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D4" s="10">
+        <v>1</v>
+      </c>
+      <c r="E4" s="10">
+        <v>1</v>
+      </c>
+      <c r="F4" s="10">
+        <v>1</v>
+      </c>
+      <c r="G4" s="11">
+        <v>23.99</v>
+      </c>
+      <c r="H4" s="14">
+        <f t="shared" ref="H4:H25" si="1">F4*G4</f>
+        <v>23.99</v>
+      </c>
+      <c r="I4" s="15" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B5" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D5" s="10">
+        <v>1</v>
+      </c>
+      <c r="E5" s="10">
+        <v>1</v>
+      </c>
+      <c r="F5" s="10">
+        <v>1</v>
+      </c>
+      <c r="G5" s="11">
+        <v>7.99</v>
+      </c>
+      <c r="H5" s="14">
+        <f t="shared" si="1"/>
+        <v>7.99</v>
+      </c>
+      <c r="I5" s="16" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B6" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C6" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="6">
-        <v>1</v>
-      </c>
-      <c r="E4" s="6">
-        <v>1</v>
-      </c>
-      <c r="F4" s="6">
-        <v>1</v>
-      </c>
-      <c r="G4" s="7">
+      <c r="D6" s="18">
+        <v>1</v>
+      </c>
+      <c r="E6" s="18">
+        <v>1</v>
+      </c>
+      <c r="F6" s="18">
+        <v>1</v>
+      </c>
+      <c r="G6" s="19">
         <v>136.35</v>
       </c>
-      <c r="H4" s="8">
-        <f t="shared" ref="H4:H23" si="1">F4*G4</f>
+      <c r="H6" s="14">
+        <f t="shared" si="1"/>
         <v>136.35</v>
       </c>
-      <c r="I4" s="12" t="s">
+      <c r="I6" s="20" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="2:9" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B5" s="9" t="s">
+    <row r="7" spans="2:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B7" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C7" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="10">
-        <v>1</v>
-      </c>
-      <c r="E5" s="10">
-        <v>1</v>
-      </c>
-      <c r="F5" s="10">
-        <v>1</v>
-      </c>
-      <c r="G5" s="11">
+      <c r="D7" s="22">
+        <v>1</v>
+      </c>
+      <c r="E7" s="22">
+        <v>1</v>
+      </c>
+      <c r="F7" s="22">
+        <v>1</v>
+      </c>
+      <c r="G7" s="23">
         <v>31.99</v>
       </c>
-      <c r="H5" s="13">
+      <c r="H7" s="24">
         <f t="shared" si="1"/>
         <v>31.99</v>
       </c>
-      <c r="I5" s="16" t="s">
+      <c r="I7" s="25" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="2:9" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B6" s="9" t="s">
+    <row r="8" spans="2:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B8" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C8" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="10">
-        <v>1</v>
-      </c>
-      <c r="E6" s="10">
-        <v>1</v>
-      </c>
-      <c r="F6" s="10">
-        <v>1</v>
-      </c>
-      <c r="G6" s="11">
+      <c r="D8" s="22">
+        <v>1</v>
+      </c>
+      <c r="E8" s="22">
+        <v>1</v>
+      </c>
+      <c r="F8" s="22">
+        <v>1</v>
+      </c>
+      <c r="G8" s="23">
         <v>41.54</v>
       </c>
-      <c r="H6" s="13">
+      <c r="H8" s="24">
         <f t="shared" si="1"/>
         <v>41.54</v>
       </c>
-      <c r="I6" s="16" t="s">
+      <c r="I8" s="25" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="2:9" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B7" s="9" t="s">
+    <row r="9" spans="2:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B9" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C9" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="10">
+      <c r="D9" s="22">
         <v>4</v>
       </c>
-      <c r="E7" s="10">
-        <v>1</v>
-      </c>
-      <c r="F7" s="10">
+      <c r="E9" s="22">
+        <v>1</v>
+      </c>
+      <c r="F9" s="22">
         <v>4</v>
       </c>
-      <c r="G7" s="11">
+      <c r="G9" s="23">
         <v>1.64</v>
       </c>
-      <c r="H7" s="13">
+      <c r="H9" s="24">
         <f t="shared" si="1"/>
         <v>6.56</v>
       </c>
-      <c r="I7" s="16" t="s">
+      <c r="I9" s="25" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="2:9" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B8" s="9" t="s">
+    <row r="10" spans="2:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B10" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C10" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="10">
+      <c r="D10" s="22">
         <v>7</v>
       </c>
-      <c r="E8" s="10">
+      <c r="E10" s="22">
         <v>5</v>
       </c>
-      <c r="F8" s="10">
+      <c r="F10" s="22">
         <v>2</v>
       </c>
-      <c r="G8" s="11">
+      <c r="G10" s="23">
         <v>8.75</v>
       </c>
-      <c r="H8" s="13">
+      <c r="H10" s="24">
         <f t="shared" si="1"/>
         <v>17.5</v>
       </c>
-      <c r="I8" s="16" t="s">
+      <c r="I10" s="25" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="2:9" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B9" s="9" t="s">
+    <row r="11" spans="2:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B11" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C11" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="D9" s="10">
+      <c r="D11" s="22">
         <v>12</v>
       </c>
-      <c r="E9" s="10">
-        <v>1</v>
-      </c>
-      <c r="F9" s="10">
+      <c r="E11" s="22">
+        <v>1</v>
+      </c>
+      <c r="F11" s="22">
         <v>12</v>
       </c>
-      <c r="G9" s="11">
+      <c r="G11" s="23">
         <v>5.2</v>
       </c>
-      <c r="H9" s="13">
+      <c r="H11" s="24">
         <f t="shared" si="1"/>
         <v>62.400000000000006</v>
       </c>
-      <c r="I9" s="16" t="s">
+      <c r="I11" s="25" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="2:9" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B10" s="9" t="s">
+    <row r="12" spans="2:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B12" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C12" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="D10" s="10">
+      <c r="D12" s="22">
         <v>4</v>
       </c>
-      <c r="E10" s="10">
-        <v>1</v>
-      </c>
-      <c r="F10" s="10">
+      <c r="E12" s="22">
+        <v>1</v>
+      </c>
+      <c r="F12" s="22">
         <v>4</v>
       </c>
-      <c r="G10" s="11">
+      <c r="G12" s="23">
         <v>5.93</v>
       </c>
-      <c r="H10" s="13">
+      <c r="H12" s="24">
         <f t="shared" si="1"/>
         <v>23.72</v>
       </c>
-      <c r="I10" s="16" t="s">
+      <c r="I12" s="25" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="2:9" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B11" s="9" t="s">
+    <row r="13" spans="2:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B13" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C13" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="D11" s="10">
+      <c r="D13" s="22">
         <v>7</v>
       </c>
-      <c r="E11" s="10">
+      <c r="E13" s="22">
         <v>100</v>
       </c>
-      <c r="F11" s="10">
-        <v>1</v>
-      </c>
-      <c r="G11" s="11">
+      <c r="F13" s="22">
+        <v>1</v>
+      </c>
+      <c r="G13" s="23">
         <v>9.15</v>
       </c>
-      <c r="H11" s="13">
+      <c r="H13" s="24">
         <f t="shared" si="1"/>
         <v>9.15</v>
       </c>
-      <c r="I11" s="16" t="s">
+      <c r="I13" s="25" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="2:9" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B12" s="9" t="s">
+    <row r="14" spans="2:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B14" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C14" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="D12" s="10">
+      <c r="D14" s="22">
         <v>16</v>
       </c>
-      <c r="E12" s="10">
+      <c r="E14" s="22">
         <v>100</v>
       </c>
-      <c r="F12" s="10">
-        <v>1</v>
-      </c>
-      <c r="G12" s="11">
+      <c r="F14" s="22">
+        <v>1</v>
+      </c>
+      <c r="G14" s="23">
         <v>3.88</v>
       </c>
-      <c r="H12" s="13">
+      <c r="H14" s="24">
         <f t="shared" si="1"/>
         <v>3.88</v>
       </c>
-      <c r="I12" s="16" t="s">
+      <c r="I14" s="25" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="2:9" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B13" s="9" t="s">
+    <row r="15" spans="2:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B15" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C15" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="D13" s="10">
+      <c r="D15" s="22">
         <v>7</v>
       </c>
-      <c r="E13" s="10">
-        <v>1</v>
-      </c>
-      <c r="F13" s="10">
+      <c r="E15" s="22">
+        <v>1</v>
+      </c>
+      <c r="F15" s="22">
         <v>7</v>
       </c>
-      <c r="G13" s="11">
+      <c r="G15" s="23">
         <v>4.58</v>
       </c>
-      <c r="H13" s="13">
+      <c r="H15" s="24">
         <f t="shared" si="1"/>
         <v>32.06</v>
       </c>
-      <c r="I13" s="16" t="s">
+      <c r="I15" s="25" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="2:9" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B14" s="20" t="s">
+    <row r="16" spans="2:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B16" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="C14" s="21" t="s">
+      <c r="C16" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="D14" s="21">
+      <c r="D16" s="27">
         <v>16</v>
       </c>
-      <c r="E14" s="21">
-        <v>1</v>
-      </c>
-      <c r="F14" s="10">
+      <c r="E16" s="27">
+        <v>1</v>
+      </c>
+      <c r="F16" s="22">
         <v>16</v>
       </c>
-      <c r="G14" s="23">
+      <c r="G16" s="28">
         <v>4.4800000000000004</v>
       </c>
-      <c r="H14" s="13">
+      <c r="H16" s="24">
         <f t="shared" si="1"/>
         <v>71.680000000000007</v>
       </c>
-      <c r="I14" s="24" t="s">
+      <c r="I16" s="29" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="2:9" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B15" s="20" t="s">
+    <row r="17" spans="2:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B17" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="21" t="s">
+      <c r="C17" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="D15" s="21">
-        <v>1</v>
-      </c>
-      <c r="E15" s="21">
-        <v>1</v>
-      </c>
-      <c r="F15" s="10">
-        <v>1</v>
-      </c>
-      <c r="G15" s="23">
+      <c r="D17" s="27">
+        <v>1</v>
+      </c>
+      <c r="E17" s="27">
+        <v>1</v>
+      </c>
+      <c r="F17" s="22">
+        <v>1</v>
+      </c>
+      <c r="G17" s="28">
         <v>35</v>
       </c>
-      <c r="H15" s="13">
+      <c r="H17" s="24">
         <f t="shared" si="1"/>
         <v>35</v>
       </c>
-      <c r="I15" s="24" t="s">
+      <c r="I17" s="29" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="2:9" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B16" s="20" t="s">
+    <row r="18" spans="2:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B18" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="C16" s="21" t="s">
+      <c r="C18" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="D16" s="21">
-        <v>1</v>
-      </c>
-      <c r="E16" s="21">
-        <v>1</v>
-      </c>
-      <c r="F16" s="10">
-        <v>1</v>
-      </c>
-      <c r="G16" s="23">
+      <c r="D18" s="27">
+        <v>1</v>
+      </c>
+      <c r="E18" s="27">
+        <v>1</v>
+      </c>
+      <c r="F18" s="22">
+        <v>1</v>
+      </c>
+      <c r="G18" s="28">
         <v>7.95</v>
       </c>
-      <c r="H16" s="13">
+      <c r="H18" s="24">
         <f t="shared" si="1"/>
         <v>7.95</v>
       </c>
-      <c r="I16" s="25" t="s">
+      <c r="I18" s="30" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="2:9" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B17" s="20" t="s">
+    <row r="19" spans="2:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B19" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="C17" s="21" t="s">
+      <c r="C19" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="D17" s="21">
-        <v>1</v>
-      </c>
-      <c r="E17" s="21">
-        <v>1</v>
-      </c>
-      <c r="F17" s="10">
-        <v>1</v>
-      </c>
-      <c r="G17" s="23">
+      <c r="D19" s="27">
+        <v>1</v>
+      </c>
+      <c r="E19" s="27">
+        <v>1</v>
+      </c>
+      <c r="F19" s="22">
+        <v>1</v>
+      </c>
+      <c r="G19" s="28">
         <v>8.9499999999999993</v>
       </c>
-      <c r="H17" s="13">
+      <c r="H19" s="24">
         <f t="shared" si="1"/>
         <v>8.9499999999999993</v>
       </c>
-      <c r="I17" s="25" t="s">
+      <c r="I19" s="30" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="2:9" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B18" s="20" t="s">
+    <row r="20" spans="2:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B20" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="C18" s="21" t="s">
+      <c r="C20" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="D18" s="21">
-        <v>1</v>
-      </c>
-      <c r="E18" s="21">
-        <v>1</v>
-      </c>
-      <c r="F18" s="10">
-        <v>1</v>
-      </c>
-      <c r="G18" s="23">
+      <c r="D20" s="27">
+        <v>1</v>
+      </c>
+      <c r="E20" s="27">
+        <v>1</v>
+      </c>
+      <c r="F20" s="22">
+        <v>1</v>
+      </c>
+      <c r="G20" s="28">
         <v>19.95</v>
       </c>
-      <c r="H18" s="13">
+      <c r="H20" s="24">
         <f t="shared" si="1"/>
         <v>19.95</v>
       </c>
-      <c r="I18" s="25" t="s">
+      <c r="I20" s="30" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="2:9" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B19" s="20" t="s">
+    <row r="21" spans="2:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B21" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="C19" s="21" t="s">
+      <c r="C21" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="D19" s="21">
-        <v>1</v>
-      </c>
-      <c r="E19" s="21">
-        <v>1</v>
-      </c>
-      <c r="F19" s="10">
-        <v>1</v>
-      </c>
-      <c r="G19" s="23">
+      <c r="D21" s="27">
+        <v>1</v>
+      </c>
+      <c r="E21" s="27">
+        <v>1</v>
+      </c>
+      <c r="F21" s="22">
+        <v>1</v>
+      </c>
+      <c r="G21" s="28">
         <v>2.4500000000000002</v>
       </c>
-      <c r="H19" s="13">
+      <c r="H21" s="24">
         <f t="shared" si="1"/>
         <v>2.4500000000000002</v>
       </c>
-      <c r="I19" s="25" t="s">
+      <c r="I21" s="30" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="2:9" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B20" s="20" t="s">
+    <row r="22" spans="2:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B22" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="C20" s="21" t="s">
+      <c r="C22" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="D20" s="21">
-        <v>1</v>
-      </c>
-      <c r="E20" s="21">
-        <v>1</v>
-      </c>
-      <c r="F20" s="10">
-        <v>1</v>
-      </c>
-      <c r="G20" s="23">
+      <c r="D22" s="27">
+        <v>1</v>
+      </c>
+      <c r="E22" s="27">
+        <v>1</v>
+      </c>
+      <c r="F22" s="22">
+        <v>1</v>
+      </c>
+      <c r="G22" s="28">
         <v>8.9499999999999993</v>
       </c>
-      <c r="H20" s="13">
+      <c r="H22" s="24">
         <f t="shared" si="1"/>
         <v>8.9499999999999993</v>
       </c>
-      <c r="I20" s="25" t="s">
+      <c r="I22" s="30" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="2:9" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B21" s="20" t="s">
+    <row r="23" spans="2:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B23" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="C21" s="21" t="s">
+      <c r="C23" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="D21" s="21">
-        <v>1</v>
-      </c>
-      <c r="E21" s="21">
-        <v>1</v>
-      </c>
-      <c r="F21" s="10">
-        <v>1</v>
-      </c>
-      <c r="G21" s="23">
+      <c r="D23" s="27">
+        <v>1</v>
+      </c>
+      <c r="E23" s="27">
+        <v>1</v>
+      </c>
+      <c r="F23" s="22">
+        <v>1</v>
+      </c>
+      <c r="G23" s="28">
         <v>14.95</v>
       </c>
-      <c r="H21" s="13">
+      <c r="H23" s="24">
         <f t="shared" si="1"/>
         <v>14.95</v>
       </c>
-      <c r="I21" s="25" t="s">
+      <c r="I23" s="30" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="2:9" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B22" s="20" t="s">
+    <row r="24" spans="2:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B24" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="C22" s="21" t="s">
+      <c r="C24" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="D22" s="21">
+      <c r="D24" s="27">
         <v>3</v>
       </c>
-      <c r="E22" s="21">
-        <v>1</v>
-      </c>
-      <c r="F22" s="10">
+      <c r="E24" s="27">
+        <v>1</v>
+      </c>
+      <c r="F24" s="22">
         <v>3</v>
       </c>
-      <c r="G22" s="23">
+      <c r="G24" s="28">
         <v>42</v>
       </c>
-      <c r="H22" s="13">
+      <c r="H24" s="24">
         <f t="shared" si="1"/>
         <v>126</v>
       </c>
-      <c r="I22" s="26" t="s">
+      <c r="I24" s="31" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="23" spans="2:9" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B23" s="14" t="s">
+    <row r="25" spans="2:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B25" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="C23" s="15" t="s">
+      <c r="C25" s="33" t="s">
         <v>46</v>
       </c>
-      <c r="D23" s="15">
-        <v>1</v>
-      </c>
-      <c r="E23" s="15">
-        <v>1</v>
-      </c>
-      <c r="F23" s="15">
-        <v>1</v>
-      </c>
-      <c r="G23" s="17">
+      <c r="D25" s="33">
+        <v>1</v>
+      </c>
+      <c r="E25" s="33">
+        <v>1</v>
+      </c>
+      <c r="F25" s="33">
+        <v>1</v>
+      </c>
+      <c r="G25" s="34">
         <v>10</v>
       </c>
-      <c r="H23" s="27">
+      <c r="H25" s="35">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="I23" s="28" t="s">
+      <c r="I25" s="36" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="24" spans="2:9" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B24" s="18"/>
-      <c r="C24" s="18"/>
-      <c r="D24" s="18"/>
-      <c r="E24" s="18"/>
-      <c r="F24" s="18"/>
-      <c r="G24" s="18"/>
-      <c r="H24" s="18"/>
-      <c r="I24" s="18"/>
-    </row>
-    <row r="25" spans="2:9" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B25" s="18"/>
-      <c r="C25" s="18"/>
-      <c r="D25" s="18"/>
-      <c r="E25" s="18"/>
-      <c r="F25" s="18"/>
-      <c r="G25" s="19" t="s">
+    <row r="26" spans="2:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+    </row>
+    <row r="27" spans="2:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="H25" s="22">
-        <f>SUM(H4:H23)</f>
-        <v>671.03000000000009</v>
-      </c>
-      <c r="I25" s="18"/>
+      <c r="H27" s="3">
+        <f>SUM(H3:H25)</f>
+        <v>821.01000000000045</v>
+      </c>
+      <c r="I27" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="I4" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
-    <hyperlink ref="I5" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
-    <hyperlink ref="I6" r:id="rId3" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
-    <hyperlink ref="I7" r:id="rId4" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
-    <hyperlink ref="I8" r:id="rId5" xr:uid="{00000000-0004-0000-0200-000004000000}"/>
-    <hyperlink ref="I9" r:id="rId6" xr:uid="{00000000-0004-0000-0200-000005000000}"/>
-    <hyperlink ref="I10" r:id="rId7" xr:uid="{00000000-0004-0000-0200-000006000000}"/>
-    <hyperlink ref="I11" r:id="rId8" xr:uid="{00000000-0004-0000-0200-000007000000}"/>
-    <hyperlink ref="I12" r:id="rId9" xr:uid="{00000000-0004-0000-0200-000008000000}"/>
-    <hyperlink ref="I13" r:id="rId10" xr:uid="{00000000-0004-0000-0200-000009000000}"/>
-    <hyperlink ref="I14" r:id="rId11" xr:uid="{00000000-0004-0000-0200-00000A000000}"/>
-    <hyperlink ref="I15" r:id="rId12" xr:uid="{00000000-0004-0000-0200-00000B000000}"/>
-    <hyperlink ref="I16" r:id="rId13" xr:uid="{00000000-0004-0000-0200-00000C000000}"/>
-    <hyperlink ref="I17" r:id="rId14" xr:uid="{00000000-0004-0000-0200-00000D000000}"/>
-    <hyperlink ref="I18" r:id="rId15" xr:uid="{00000000-0004-0000-0200-00000E000000}"/>
-    <hyperlink ref="I19" r:id="rId16" xr:uid="{00000000-0004-0000-0200-00000F000000}"/>
-    <hyperlink ref="I20" r:id="rId17" xr:uid="{00000000-0004-0000-0200-000010000000}"/>
-    <hyperlink ref="I21" r:id="rId18" xr:uid="{00000000-0004-0000-0200-000011000000}"/>
-    <hyperlink ref="I22" r:id="rId19" xr:uid="{00000000-0004-0000-0200-000012000000}"/>
-    <hyperlink ref="I23" r:id="rId20" xr:uid="{00000000-0004-0000-0200-000013000000}"/>
+    <hyperlink ref="I6" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="I7" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
+    <hyperlink ref="I8" r:id="rId3" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
+    <hyperlink ref="I9" r:id="rId4" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
+    <hyperlink ref="I10" r:id="rId5" xr:uid="{00000000-0004-0000-0200-000004000000}"/>
+    <hyperlink ref="I11" r:id="rId6" xr:uid="{00000000-0004-0000-0200-000005000000}"/>
+    <hyperlink ref="I12" r:id="rId7" xr:uid="{00000000-0004-0000-0200-000006000000}"/>
+    <hyperlink ref="I13" r:id="rId8" xr:uid="{00000000-0004-0000-0200-000007000000}"/>
+    <hyperlink ref="I14" r:id="rId9" xr:uid="{00000000-0004-0000-0200-000008000000}"/>
+    <hyperlink ref="I15" r:id="rId10" xr:uid="{00000000-0004-0000-0200-000009000000}"/>
+    <hyperlink ref="I16" r:id="rId11" xr:uid="{00000000-0004-0000-0200-00000A000000}"/>
+    <hyperlink ref="I17" r:id="rId12" xr:uid="{00000000-0004-0000-0200-00000B000000}"/>
+    <hyperlink ref="I18" r:id="rId13" xr:uid="{00000000-0004-0000-0200-00000C000000}"/>
+    <hyperlink ref="I19" r:id="rId14" xr:uid="{00000000-0004-0000-0200-00000D000000}"/>
+    <hyperlink ref="I20" r:id="rId15" xr:uid="{00000000-0004-0000-0200-00000E000000}"/>
+    <hyperlink ref="I21" r:id="rId16" xr:uid="{00000000-0004-0000-0200-00000F000000}"/>
+    <hyperlink ref="I22" r:id="rId17" xr:uid="{00000000-0004-0000-0200-000010000000}"/>
+    <hyperlink ref="I23" r:id="rId18" xr:uid="{00000000-0004-0000-0200-000011000000}"/>
+    <hyperlink ref="I24" r:id="rId19" xr:uid="{00000000-0004-0000-0200-000012000000}"/>
+    <hyperlink ref="I25" r:id="rId20" xr:uid="{00000000-0004-0000-0200-000013000000}"/>
     <hyperlink ref="I3" r:id="rId21" xr:uid="{094090C0-464F-4ECB-97C7-E3B222ADA5F2}"/>
+    <hyperlink ref="I4" r:id="rId22" xr:uid="{E308C189-A095-4583-AFCA-3FA854BA5E2E}"/>
+    <hyperlink ref="I5" r:id="rId23" xr:uid="{3C9EDE4A-9578-421E-A093-E951A701D355}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId22"/>
+    <tablePart r:id="rId24"/>
   </tableParts>
 </worksheet>
 </file>